--- a/biology/Botanique/Nelsonia_(plante)/Nelsonia_(plante).xlsx
+++ b/biology/Botanique/Nelsonia_(plante)/Nelsonia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nelsonia est un genre appartenant à la famille des Acanthaceae.
-Ce sont des plantes originaires d'Afrique tropicale, de Madagascar, d'Amérique latine, d'Australie et d'Asie du Sud-Est[1].
+Ce sont des plantes originaires d'Afrique tropicale, de Madagascar, d'Amérique latine, d'Australie et d'Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2]   9 octobre 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   9 octobre 2012
 Nelsonia canescens  (Lam.) Spreng. , (1824)
 Nelsonia gracilis  Vollesen  , (1994)
 Nelsonia nummulariaefolia  (Vahl) Roem. &amp; Schult. 	, (1817)
 Nelsonia smithii  Oerst. , (1854)
-Selon GBIF[3]:
+Selon GBIF:
 Nelsonia albicans H.B. &amp; K.
 Nelsonia brunellodes Kuntze
 Nelsonia brunelloides (Lam.) Kuntze
@@ -565,9 +579,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2]   9 octobre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   9 octobre 2012
 Nelsonia albicans Kunth = Nelsonia canescens (Lam.) Spreng. , (1824)
 Nelsonia brunelloides (Lam.) Kuntze = Nelsonia canescens (Lam.) Spreng. , (1824)
 Nelsonia campestris R.Br. = Nelsonia canescens (Lam.) Spreng. , (1824)
@@ -609,9 +625,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2]   9 octobre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   9 octobre 2012
 Nelsonia pre Herbarium Practice, Following Welman.
 Nelsonia vestita Schult.</t>
         </is>
